--- a/data/trans_bre/P4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>26,41%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>83,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 13,85</t>
+          <t>-14,57; 19,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 14,98</t>
+          <t>-15,3; 16,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 11,9</t>
+          <t>-5,87; 16,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 12,72</t>
+          <t>-7,15; 13,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 4,6</t>
+          <t>1,81; 25,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 68,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 73,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 59,58</t>
+          <t>-37,18; 101,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 58,03</t>
+          <t>-40,12; 80,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 11,33</t>
+          <t>-19,34; 80,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,09; 62,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 234,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 6,26</t>
+          <t>-9,38; 7,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 2,55</t>
+          <t>-9,87; 6,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,88</t>
+          <t>-2,17; 10,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,3</t>
+          <t>-7,1; 4,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 13,43</t>
+          <t>-5,0; 8,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 28,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 10,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 57,78</t>
+          <t>-32,78; 42,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 25,73</t>
+          <t>-33,61; 32,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 38,52</t>
+          <t>-8,85; 57,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,46; 20,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-20,87; 47,94</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 7,83</t>
+          <t>-5,13; 11,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 9,09</t>
+          <t>-5,54; 9,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,2</t>
+          <t>-2,89; 9,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,29</t>
+          <t>-4,29; 7,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 8,38</t>
+          <t>-8,74; 6,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 46,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 57,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 59,3</t>
+          <t>-20,56; 87,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 41,91</t>
+          <t>-22,96; 63,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 33,1</t>
+          <t>-13,77; 57,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-17,57; 42,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-32,2; 39,03</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,05</t>
+          <t>-2,66; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 4,21</t>
+          <t>-6,84; 6,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,96</t>
+          <t>-3,94; 10,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 5,68</t>
+          <t>-2,04; 14,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 28,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 19,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 40,14</t>
+          <t>-9,74; 32,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 24,73</t>
+          <t>-23,17; 29,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 15,32</t>
+          <t>-16,67; 59,7</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 79,6</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 5,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 4,83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 7,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 5,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 8,25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,62; 28,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 23,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 40,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 25,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 44,22</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
